--- a/output.xlsx
+++ b/output.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -907,12 +907,12 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>hdfc credila</t>
+          <t>hdfc</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>hdfc credila</t>
+          <t>hdfc</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1899,12 +1899,12 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>hdfc credila</t>
+          <t>hdfc</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>hdfc credila</t>
+          <t>hdfc</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>univ. fin. aid dept.</t>
+          <t>univ finaid dept</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>b.e-information science and engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -7603,12 +7603,12 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>hdfc credila</t>
+          <t>hdfc</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8347,12 +8347,12 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9339,12 +9339,12 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>hdfc credila</t>
+          <t>hdfc</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -10579,7 +10579,7 @@
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -12067,7 +12067,7 @@
       </c>
       <c r="AR47" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS47" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -12315,12 +12315,12 @@
       </c>
       <c r="AR48" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS48" t="inlineStr">
         <is>
-          <t>hdfc credila</t>
+          <t>hdfc</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="AS49" t="inlineStr">
         <is>
-          <t>icici bank</t>
+          <t>icici</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="AS50" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -13169,7 +13169,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -13808,7 +13808,7 @@
       </c>
       <c r="AS54" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="AS55" t="inlineStr">
         <is>
-          <t>hdfc credila</t>
+          <t>hdfc</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -14304,7 +14304,7 @@
       </c>
       <c r="AS56" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr">
@@ -14409,7 +14409,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="AS58" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr">
@@ -14905,7 +14905,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="AS59" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -15401,7 +15401,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -15539,12 +15539,12 @@
       </c>
       <c r="AR61" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS61" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="AS62" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -16040,7 +16040,7 @@
       </c>
       <c r="AS63" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr">
@@ -16145,7 +16145,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="AS64" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr">
@@ -16393,7 +16393,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -16531,12 +16531,12 @@
       </c>
       <c r="AR65" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS65" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -16779,12 +16779,12 @@
       </c>
       <c r="AR66" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS66" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr">
@@ -16889,7 +16889,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="AR67" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS67" t="inlineStr">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -17275,12 +17275,12 @@
       </c>
       <c r="AR68" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS68" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -17523,12 +17523,12 @@
       </c>
       <c r="AR69" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS69" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -17776,7 +17776,7 @@
       </c>
       <c r="AS70" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -18019,12 +18019,12 @@
       </c>
       <c r="AR71" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS71" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -18267,12 +18267,12 @@
       </c>
       <c r="AR72" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
@@ -18377,7 +18377,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -18515,12 +18515,12 @@
       </c>
       <c r="AR73" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS73" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr">
@@ -18625,7 +18625,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -18763,12 +18763,12 @@
       </c>
       <c r="AR74" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS74" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr">
@@ -18873,7 +18873,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -19011,12 +19011,12 @@
       </c>
       <c r="AR75" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS75" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -19259,12 +19259,12 @@
       </c>
       <c r="AR76" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS76" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr">
@@ -19369,7 +19369,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -19512,7 +19512,7 @@
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
@@ -19617,7 +19617,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -19760,7 +19760,7 @@
       </c>
       <c r="AS78" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr">
@@ -19865,7 +19865,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -20003,12 +20003,12 @@
       </c>
       <c r="AR79" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS79" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr">
@@ -20113,7 +20113,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -20499,7 +20499,7 @@
       </c>
       <c r="AR81" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS81" t="inlineStr">
@@ -20609,7 +20609,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="AS83" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr">
@@ -21105,7 +21105,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="AS84" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr">
@@ -21353,7 +21353,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="AS85" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT85" t="inlineStr">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -21739,12 +21739,12 @@
       </c>
       <c r="AR86" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS86" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -21987,12 +21987,12 @@
       </c>
       <c r="AR87" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
@@ -22097,7 +22097,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -22240,7 +22240,7 @@
       </c>
       <c r="AS88" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -22488,7 +22488,7 @@
       </c>
       <c r="AS89" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr">
@@ -22593,7 +22593,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -22731,12 +22731,12 @@
       </c>
       <c r="AR90" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS90" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT90" t="inlineStr">
@@ -22841,7 +22841,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="AS91" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr">
@@ -23089,7 +23089,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -23227,12 +23227,12 @@
       </c>
       <c r="AR92" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS92" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr">
@@ -23337,7 +23337,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="AS93" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT93" t="inlineStr">
@@ -23585,7 +23585,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -23723,12 +23723,12 @@
       </c>
       <c r="AR94" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS94" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr">
@@ -23833,7 +23833,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -23971,12 +23971,12 @@
       </c>
       <c r="AR95" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS95" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT95" t="inlineStr">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="AS96" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT96" t="inlineStr">
@@ -24329,7 +24329,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -24467,12 +24467,12 @@
       </c>
       <c r="AR97" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -24715,12 +24715,12 @@
       </c>
       <c r="AR98" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS98" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT98" t="inlineStr">
@@ -24825,7 +24825,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -24968,7 +24968,7 @@
       </c>
       <c r="AS99" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT99" t="inlineStr">
@@ -25073,7 +25073,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -25211,12 +25211,12 @@
       </c>
       <c r="AR100" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS100" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT100" t="inlineStr">
@@ -25321,7 +25321,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -25464,7 +25464,7 @@
       </c>
       <c r="AS101" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT101" t="inlineStr">
@@ -25569,7 +25569,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="AS102" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr">
@@ -25817,7 +25817,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -25955,12 +25955,12 @@
       </c>
       <c r="AR103" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS103" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT103" t="inlineStr">
@@ -26065,7 +26065,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -26203,12 +26203,12 @@
       </c>
       <c r="AR104" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS104" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT104" t="inlineStr">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -26451,12 +26451,12 @@
       </c>
       <c r="AR105" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS105" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT105" t="inlineStr">
@@ -26561,7 +26561,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -26699,12 +26699,12 @@
       </c>
       <c r="AR106" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS106" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT106" t="inlineStr">
@@ -26809,7 +26809,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="AS107" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr">
@@ -27057,7 +27057,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -27200,7 +27200,7 @@
       </c>
       <c r="AS108" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT108" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -27443,12 +27443,12 @@
       </c>
       <c r="AR109" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS109" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT109" t="inlineStr">
@@ -27553,7 +27553,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="AS110" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT110" t="inlineStr">
@@ -27801,7 +27801,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>b.e - electronics &amp; communication engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -27939,12 +27939,12 @@
       </c>
       <c r="AR111" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS111" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT111" t="inlineStr">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -28187,12 +28187,12 @@
       </c>
       <c r="AR112" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS112" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr">
@@ -28297,7 +28297,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -28435,12 +28435,12 @@
       </c>
       <c r="AR113" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS113" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr">
@@ -28545,7 +28545,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -28683,12 +28683,12 @@
       </c>
       <c r="AR114" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS114" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT114" t="inlineStr">
@@ -28793,7 +28793,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -28936,7 +28936,7 @@
       </c>
       <c r="AS115" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT115" t="inlineStr">
@@ -29041,7 +29041,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -29184,7 +29184,7 @@
       </c>
       <c r="AS116" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr">
@@ -29289,7 +29289,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -29427,12 +29427,12 @@
       </c>
       <c r="AR117" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
@@ -29537,7 +29537,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -29680,7 +29680,7 @@
       </c>
       <c r="AS118" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr">
@@ -29785,7 +29785,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -29923,12 +29923,12 @@
       </c>
       <c r="AR119" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS119" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT119" t="inlineStr">
@@ -30033,7 +30033,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -30171,12 +30171,12 @@
       </c>
       <c r="AR120" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS120" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT120" t="inlineStr">
@@ -30281,7 +30281,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -30419,12 +30419,12 @@
       </c>
       <c r="AR121" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS121" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr">
@@ -30529,7 +30529,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -30672,7 +30672,7 @@
       </c>
       <c r="AS122" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr">
@@ -30777,7 +30777,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -30915,12 +30915,12 @@
       </c>
       <c r="AR123" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS123" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT123" t="inlineStr">
@@ -31025,7 +31025,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -31163,12 +31163,12 @@
       </c>
       <c r="AR124" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS124" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -31416,7 +31416,7 @@
       </c>
       <c r="AS125" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr">
@@ -31521,7 +31521,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -31659,12 +31659,12 @@
       </c>
       <c r="AR126" t="inlineStr">
         <is>
-          <t>cx dicey</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS126" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr">
@@ -31769,7 +31769,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -31907,12 +31907,12 @@
       </c>
       <c r="AR127" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS127" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr">
@@ -32017,7 +32017,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -32155,12 +32155,12 @@
       </c>
       <c r="AR128" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS128" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT128" t="inlineStr">
@@ -32265,7 +32265,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -32408,7 +32408,7 @@
       </c>
       <c r="AS129" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT129" t="inlineStr">
@@ -32513,7 +32513,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -32656,7 +32656,7 @@
       </c>
       <c r="AS130" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT130" t="inlineStr">
@@ -32761,7 +32761,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -32899,12 +32899,12 @@
       </c>
       <c r="AR131" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS131" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT131" t="inlineStr">
@@ -33009,7 +33009,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -33147,12 +33147,12 @@
       </c>
       <c r="AR132" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS132" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr">
@@ -33257,7 +33257,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -33400,7 +33400,7 @@
       </c>
       <c r="AS133" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr">
@@ -33505,7 +33505,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -33648,7 +33648,7 @@
       </c>
       <c r="AS134" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT134" t="inlineStr">
@@ -33753,7 +33753,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -33896,7 +33896,7 @@
       </c>
       <c r="AS135" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr">
@@ -34001,7 +34001,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -34139,12 +34139,12 @@
       </c>
       <c r="AR136" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS136" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr">
@@ -34249,7 +34249,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -34387,12 +34387,12 @@
       </c>
       <c r="AR137" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS137" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr">
@@ -34497,7 +34497,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -34635,12 +34635,12 @@
       </c>
       <c r="AR138" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS138" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr">
@@ -34745,7 +34745,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -34883,12 +34883,12 @@
       </c>
       <c r="AR139" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS139" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT139" t="inlineStr">
@@ -34993,7 +34993,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -35131,12 +35131,12 @@
       </c>
       <c r="AR140" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS140" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT140" t="inlineStr">
@@ -35241,7 +35241,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -35379,12 +35379,12 @@
       </c>
       <c r="AR141" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS141" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT141" t="inlineStr">
@@ -35489,7 +35489,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -35632,7 +35632,7 @@
       </c>
       <c r="AS142" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT142" t="inlineStr">
@@ -35737,7 +35737,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -35875,12 +35875,12 @@
       </c>
       <c r="AR143" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS143" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT143" t="inlineStr">
@@ -35985,7 +35985,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -36233,7 +36233,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -36372,7 +36372,7 @@
       </c>
       <c r="AS145" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT145" t="inlineStr">
@@ -36477,7 +36477,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -36615,12 +36615,12 @@
       </c>
       <c r="AR146" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS146" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT146" t="inlineStr">
@@ -36725,7 +36725,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -36863,12 +36863,12 @@
       </c>
       <c r="AR147" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS147" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT147" t="inlineStr">
@@ -36973,7 +36973,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -37111,12 +37111,12 @@
       </c>
       <c r="AR148" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS148" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT148" t="inlineStr">
@@ -37221,7 +37221,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -37359,12 +37359,12 @@
       </c>
       <c r="AR149" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS149" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT149" t="inlineStr">
@@ -37469,7 +37469,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -37607,12 +37607,12 @@
       </c>
       <c r="AR150" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS150" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT150" t="inlineStr">
@@ -37717,7 +37717,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -37860,7 +37860,7 @@
       </c>
       <c r="AS151" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT151" t="inlineStr">
@@ -37965,7 +37965,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -38103,12 +38103,12 @@
       </c>
       <c r="AR152" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS152" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT152" t="inlineStr">
@@ -38213,7 +38213,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -38356,7 +38356,7 @@
       </c>
       <c r="AS153" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT153" t="inlineStr">
@@ -38461,7 +38461,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -38604,7 +38604,7 @@
       </c>
       <c r="AS154" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT154" t="inlineStr">
@@ -38709,7 +38709,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -38847,12 +38847,12 @@
       </c>
       <c r="AR155" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS155" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT155" t="inlineStr">
@@ -38957,7 +38957,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -39100,7 +39100,7 @@
       </c>
       <c r="AS156" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT156" t="inlineStr">
@@ -39205,7 +39205,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -39348,7 +39348,7 @@
       </c>
       <c r="AS157" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT157" t="inlineStr">
@@ -39453,7 +39453,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -39591,12 +39591,12 @@
       </c>
       <c r="AR158" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS158" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT158" t="inlineStr">
@@ -39701,7 +39701,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -39844,7 +39844,7 @@
       </c>
       <c r="AS159" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT159" t="inlineStr">
@@ -39949,7 +39949,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -40087,12 +40087,12 @@
       </c>
       <c r="AR160" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS160" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT160" t="inlineStr">
@@ -40197,7 +40197,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -40335,12 +40335,12 @@
       </c>
       <c r="AR161" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS161" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT161" t="inlineStr">
@@ -40445,7 +40445,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -40588,7 +40588,7 @@
       </c>
       <c r="AS162" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT162" t="inlineStr">
@@ -40693,7 +40693,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -40831,12 +40831,12 @@
       </c>
       <c r="AR163" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS163" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr">
@@ -40941,7 +40941,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -41084,7 +41084,7 @@
       </c>
       <c r="AS164" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT164" t="inlineStr">
@@ -41189,7 +41189,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>b.e - industrial production</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -41332,7 +41332,7 @@
       </c>
       <c r="AS165" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT165" t="inlineStr">
@@ -41437,7 +41437,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>b.tech - electronics &amp; communication engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -41575,12 +41575,12 @@
       </c>
       <c r="AR166" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS166" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT166" t="inlineStr">
@@ -41685,7 +41685,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>b.tech - electrical engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -41823,12 +41823,12 @@
       </c>
       <c r="AR167" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS167" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT167" t="inlineStr">
@@ -41933,7 +41933,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>b.e - civil engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -42071,12 +42071,12 @@
       </c>
       <c r="AR168" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS168" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT168" t="inlineStr">
@@ -42181,7 +42181,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>b.e - information science &amp; engg.</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -42319,12 +42319,12 @@
       </c>
       <c r="AR169" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS169" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT169" t="inlineStr">
@@ -42429,7 +42429,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>ba llb - law</t>
+          <t>llb</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -42572,7 +42572,7 @@
       </c>
       <c r="AS170" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT170" t="inlineStr">
@@ -42677,7 +42677,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>b. tech - electronics and communication engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -42815,12 +42815,12 @@
       </c>
       <c r="AR171" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS171" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT171" t="inlineStr">
@@ -42925,7 +42925,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>b.tech - mechatronics</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -43063,12 +43063,12 @@
       </c>
       <c r="AR172" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS172" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT172" t="inlineStr">
@@ -43173,7 +43173,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>b. tech - electrical and electronics engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -43311,12 +43311,12 @@
       </c>
       <c r="AR173" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS173" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT173" t="inlineStr">
@@ -43421,7 +43421,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>b.tech - electronics and communication engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -43564,7 +43564,7 @@
       </c>
       <c r="AS174" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT174" t="inlineStr">
@@ -43669,7 +43669,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>b.sc - maths, physics, computer science</t>
+          <t>bsc</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -43812,7 +43812,7 @@
       </c>
       <c r="AS175" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT175" t="inlineStr">
@@ -43917,7 +43917,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>b.tech - production engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -44060,7 +44060,7 @@
       </c>
       <c r="AS176" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr">
@@ -44165,7 +44165,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>btech civil - civil engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -44308,7 +44308,7 @@
       </c>
       <c r="AS177" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT177" t="inlineStr">
@@ -44413,7 +44413,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>b. tech - computer science and engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -44551,12 +44551,12 @@
       </c>
       <c r="AR178" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS178" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr">
@@ -44661,7 +44661,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>b.sc - mathematics</t>
+          <t>bsc</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -44799,12 +44799,12 @@
       </c>
       <c r="AR179" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS179" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT179" t="inlineStr">
@@ -44909,7 +44909,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>bachelor of ayurvedic medicine and surgery (bams) - ayurvedic medicine</t>
+          <t>bams</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -45047,12 +45047,12 @@
       </c>
       <c r="AR180" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS180" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT180" t="inlineStr">
@@ -45157,7 +45157,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>bchalor of arts - econimics</t>
+          <t>bcom</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -45295,12 +45295,12 @@
       </c>
       <c r="AR181" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS181" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT181" t="inlineStr">
@@ -45405,7 +45405,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>b.tech (me ) - mechanical engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -45543,12 +45543,12 @@
       </c>
       <c r="AR182" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS182" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT182" t="inlineStr">
@@ -45653,7 +45653,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>b.tech - biotechnology</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -45796,7 +45796,7 @@
       </c>
       <c r="AS183" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT183" t="inlineStr">
@@ -45901,7 +45901,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>b.e. - information technology</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -46044,7 +46044,7 @@
       </c>
       <c r="AS184" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT184" t="inlineStr">
@@ -46149,7 +46149,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>b. tech - computer science engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -46287,12 +46287,12 @@
       </c>
       <c r="AR185" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS185" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT185" t="inlineStr">
@@ -46397,7 +46397,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>b.e - mechanical engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -46535,12 +46535,12 @@
       </c>
       <c r="AR186" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS186" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr">
@@ -46645,7 +46645,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>b.tech - electrical engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -46788,7 +46788,7 @@
       </c>
       <c r="AS187" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT187" t="inlineStr">
@@ -46893,7 +46893,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>b.tech - computer science and engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -47031,12 +47031,12 @@
       </c>
       <c r="AR188" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS188" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT188" t="inlineStr">
@@ -47141,7 +47141,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>b. sc. physical education, health education and sports</t>
+          <t>bsc</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -47284,7 +47284,7 @@
       </c>
       <c r="AS189" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT189" t="inlineStr">
@@ -47389,7 +47389,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -47527,12 +47527,12 @@
       </c>
       <c r="AR190" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS190" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT190" t="inlineStr">
@@ -47637,7 +47637,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>bsc - chemistry, botany, zoology</t>
+          <t>bsc</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -47775,12 +47775,12 @@
       </c>
       <c r="AR191" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS191" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT191" t="inlineStr">
@@ -47885,7 +47885,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>b.tech - information technology</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -48024,7 +48024,7 @@
       </c>
       <c r="AS192" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT192" t="inlineStr">
@@ -48129,7 +48129,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -48272,7 +48272,7 @@
       </c>
       <c r="AS193" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT193" t="inlineStr">
@@ -48377,7 +48377,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>b.tech - instrumentation and control engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -48520,7 +48520,7 @@
       </c>
       <c r="AS194" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT194" t="inlineStr">
@@ -48625,7 +48625,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -48763,12 +48763,12 @@
       </c>
       <c r="AR195" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS195" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT195" t="inlineStr">
@@ -48873,7 +48873,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>bachelor of engineering - computer science and engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -49011,12 +49011,12 @@
       </c>
       <c r="AR196" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS196" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT196" t="inlineStr">
@@ -49121,7 +49121,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>b.tech - civil engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -49264,7 +49264,7 @@
       </c>
       <c r="AS197" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT197" t="inlineStr">
@@ -49369,7 +49369,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>b.com(computers)</t>
+          <t>bcom</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -49507,12 +49507,12 @@
       </c>
       <c r="AR198" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS198" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT198" t="inlineStr">
@@ -49617,7 +49617,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>b.e - mechanical engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -49755,12 +49755,12 @@
       </c>
       <c r="AR199" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS199" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT199" t="inlineStr">
@@ -50003,12 +50003,12 @@
       </c>
       <c r="AR200" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS200" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT200" t="inlineStr">
@@ -50113,7 +50113,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>m.tech - mechanical engineering</t>
+          <t>mtech</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -50256,7 +50256,7 @@
       </c>
       <c r="AS201" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT201" t="inlineStr">
@@ -50361,7 +50361,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>pgdm - human resource management</t>
+          <t>pgdm</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -50504,7 +50504,7 @@
       </c>
       <c r="AS202" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT202" t="inlineStr">
@@ -50609,7 +50609,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -50752,7 +50752,7 @@
       </c>
       <c r="AS203" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT203" t="inlineStr">
@@ -50857,7 +50857,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>chartered accountancy - finance</t>
+          <t>ca</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -50995,12 +50995,12 @@
       </c>
       <c r="AR204" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS204" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT204" t="inlineStr">
@@ -51105,7 +51105,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>b.e. - mechanical engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -51243,12 +51243,12 @@
       </c>
       <c r="AR205" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS205" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT205" t="inlineStr">
@@ -51353,7 +51353,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>b.tech - computer science &amp; engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -51491,12 +51491,12 @@
       </c>
       <c r="AR206" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS206" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT206" t="inlineStr">
@@ -51601,7 +51601,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>b.e.it - information technology</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -51744,7 +51744,7 @@
       </c>
       <c r="AS207" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT207" t="inlineStr">
@@ -51849,7 +51849,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>b.com - commerce</t>
+          <t>bcom</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -51987,12 +51987,12 @@
       </c>
       <c r="AR208" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS208" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT208" t="inlineStr">
@@ -52097,7 +52097,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>bba - finance general</t>
+          <t>bba</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -52235,12 +52235,12 @@
       </c>
       <c r="AR209" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS209" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT209" t="inlineStr">
@@ -52345,7 +52345,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>b.e - information technology</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -52483,12 +52483,12 @@
       </c>
       <c r="AR210" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS210" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT210" t="inlineStr">
@@ -52593,7 +52593,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>b.e - electronics and telecommunication engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -52731,12 +52731,12 @@
       </c>
       <c r="AR211" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS211" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT211" t="inlineStr">
@@ -52841,7 +52841,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>b.tech - computer science</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -52984,7 +52984,7 @@
       </c>
       <c r="AS212" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT212" t="inlineStr">
@@ -53089,7 +53089,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>mba - general management</t>
+          <t>mba</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -53232,7 +53232,7 @@
       </c>
       <c r="AS213" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT213" t="inlineStr">
@@ -53337,7 +53337,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -53475,12 +53475,12 @@
       </c>
       <c r="AR214" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS214" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT214" t="inlineStr">
@@ -53585,7 +53585,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>b.tech  - textile technology</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -53723,12 +53723,12 @@
       </c>
       <c r="AR215" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS215" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT215" t="inlineStr">
@@ -53833,7 +53833,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -53976,7 +53976,7 @@
       </c>
       <c r="AS216" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT216" t="inlineStr">
@@ -54081,7 +54081,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -54224,7 +54224,7 @@
       </c>
       <c r="AS217" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT217" t="inlineStr">
@@ -54467,12 +54467,12 @@
       </c>
       <c r="AR218" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS218" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT218" t="inlineStr">
@@ -54577,7 +54577,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>b.tech - mechanical engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -54720,7 +54720,7 @@
       </c>
       <c r="AS219" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT219" t="inlineStr">
@@ -54825,7 +54825,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>b.e. - mechanical engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -54963,12 +54963,12 @@
       </c>
       <c r="AR220" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS220" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT220" t="inlineStr">
@@ -55073,7 +55073,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -55211,12 +55211,12 @@
       </c>
       <c r="AR221" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS221" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT221" t="inlineStr">
@@ -55321,7 +55321,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -55459,12 +55459,12 @@
       </c>
       <c r="AR222" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS222" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT222" t="inlineStr">
@@ -55565,7 +55565,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>b.e. - electronics and telecommunication</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -55703,12 +55703,12 @@
       </c>
       <c r="AR223" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS223" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT223" t="inlineStr">
@@ -55813,7 +55813,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>b.tech - electronics and communication engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -55951,12 +55951,12 @@
       </c>
       <c r="AR224" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS224" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT224" t="inlineStr">
@@ -56061,7 +56061,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -56204,7 +56204,7 @@
       </c>
       <c r="AS225" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT225" t="inlineStr">
@@ -56309,7 +56309,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>m.tech - software engineering</t>
+          <t>mtech</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -56447,12 +56447,12 @@
       </c>
       <c r="AR226" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS226" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT226" t="inlineStr">
@@ -56557,7 +56557,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>bba - human resources</t>
+          <t>bba</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -56700,7 +56700,7 @@
       </c>
       <c r="AS227" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT227" t="inlineStr">
@@ -56805,7 +56805,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>b.tech - informationtechnology</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -56943,12 +56943,12 @@
       </c>
       <c r="AR228" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS228" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT228" t="inlineStr">
@@ -57053,7 +57053,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>m.sc - biotechnology</t>
+          <t>msc</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -57191,12 +57191,12 @@
       </c>
       <c r="AR229" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS229" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT229" t="inlineStr">
@@ -57301,7 +57301,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>b.tech - chemical engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -57439,12 +57439,12 @@
       </c>
       <c r="AR230" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS230" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT230" t="inlineStr">
@@ -57549,7 +57549,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>b.tech - electronics and communication engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -57687,12 +57687,12 @@
       </c>
       <c r="AR231" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS231" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT231" t="inlineStr">
@@ -57797,7 +57797,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>b.e - electronics and communication</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -57935,12 +57935,12 @@
       </c>
       <c r="AR232" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS232" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT232" t="inlineStr">
@@ -58045,7 +58045,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>b.tech - mechanical engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -58183,12 +58183,12 @@
       </c>
       <c r="AR233" t="inlineStr">
         <is>
-          <t>only mpower</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS233" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT233" t="inlineStr">
@@ -58293,7 +58293,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>b.sc., hindu college</t>
+          <t>bsc</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -58431,12 +58431,12 @@
       </c>
       <c r="AR234" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS234" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT234" t="inlineStr">
@@ -58541,7 +58541,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>m.sc - data science</t>
+          <t>msc</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -58679,12 +58679,12 @@
       </c>
       <c r="AR235" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS235" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT235" t="inlineStr">
@@ -58789,7 +58789,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>b.tech - computer science and engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -58927,12 +58927,12 @@
       </c>
       <c r="AR236" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS236" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT236" t="inlineStr">
@@ -59037,7 +59037,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>b.tech - mechanical engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -59175,12 +59175,12 @@
       </c>
       <c r="AR237" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS237" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT237" t="inlineStr">
@@ -59285,7 +59285,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>b.tech</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -59428,7 +59428,7 @@
       </c>
       <c r="AS238" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT238" t="inlineStr">
@@ -59533,7 +59533,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>b.tech - computer science and engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -59667,12 +59667,12 @@
       </c>
       <c r="AR239" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS239" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT239" t="inlineStr">
@@ -59777,7 +59777,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>m.tech - automation and robotics</t>
+          <t>mtech</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -59915,12 +59915,12 @@
       </c>
       <c r="AR240" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS240" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT240" t="inlineStr">
@@ -60025,7 +60025,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>b.e - computer science and engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -60163,12 +60163,12 @@
       </c>
       <c r="AR241" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS241" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT241" t="inlineStr">
@@ -60273,7 +60273,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>b.tech - computer science and engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -60411,12 +60411,12 @@
       </c>
       <c r="AR242" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS242" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT242" t="inlineStr">
@@ -60521,7 +60521,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>mca - software engineering</t>
+          <t>mca</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -60659,12 +60659,12 @@
       </c>
       <c r="AR243" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS243" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT243" t="inlineStr">
@@ -60769,7 +60769,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>mba - hr, operation</t>
+          <t>mba</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -60912,7 +60912,7 @@
       </c>
       <c r="AS244" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT244" t="inlineStr">
@@ -61017,7 +61017,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>mba - management information system</t>
+          <t>mba</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -61155,12 +61155,12 @@
       </c>
       <c r="AR245" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS245" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT245" t="inlineStr">
@@ -61265,7 +61265,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>b.tech - electrical and electronics</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -61403,12 +61403,12 @@
       </c>
       <c r="AR246" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS246" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT246" t="inlineStr">
@@ -61656,7 +61656,7 @@
       </c>
       <c r="AS247" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT247" t="inlineStr">
@@ -61761,7 +61761,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>be-information technology</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -61899,12 +61899,12 @@
       </c>
       <c r="AR248" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS248" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT248" t="inlineStr">
@@ -62147,12 +62147,12 @@
       </c>
       <c r="AR249" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS249" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT249" t="inlineStr">
@@ -62257,7 +62257,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>b.tech - computer science</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -62395,12 +62395,12 @@
       </c>
       <c r="AR250" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS250" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT250" t="inlineStr">
@@ -62505,7 +62505,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>b.e - mechanical engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -62643,12 +62643,12 @@
       </c>
       <c r="AR251" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS251" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT251" t="inlineStr">
@@ -62753,7 +62753,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>b.tech - computer science</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -62891,12 +62891,12 @@
       </c>
       <c r="AR252" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS252" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT252" t="inlineStr">
@@ -63001,7 +63001,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>b.tech -industrial production engg.</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -63139,12 +63139,12 @@
       </c>
       <c r="AR253" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS253" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT253" t="inlineStr">
@@ -63249,7 +63249,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>b.tech - smart manufacturing</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -63387,12 +63387,12 @@
       </c>
       <c r="AR254" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS254" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT254" t="inlineStr">
@@ -63497,7 +63497,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>b.e - electronic &amp; comm.engg</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -63635,12 +63635,12 @@
       </c>
       <c r="AR255" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS255" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT255" t="inlineStr">
@@ -63745,7 +63745,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>b.tech - electronics and communication engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -63883,12 +63883,12 @@
       </c>
       <c r="AR256" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS256" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT256" t="inlineStr">
@@ -63993,7 +63993,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>b.e electronics engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -64136,7 +64136,7 @@
       </c>
       <c r="AS257" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT257" t="inlineStr">
@@ -64241,7 +64241,7 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>b.e.- civil engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -64379,12 +64379,12 @@
       </c>
       <c r="AR258" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS258" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT258" t="inlineStr">
@@ -64489,7 +64489,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>b.e - mechanical engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -64627,12 +64627,12 @@
       </c>
       <c r="AR259" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS259" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT259" t="inlineStr">
@@ -64737,7 +64737,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>b.e - chemical engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -64880,7 +64880,7 @@
       </c>
       <c r="AS260" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT260" t="inlineStr">
@@ -64985,7 +64985,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>b.e - electronics &amp; communication engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -65123,12 +65123,12 @@
       </c>
       <c r="AR261" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS261" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT261" t="inlineStr">
@@ -65233,7 +65233,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -65376,7 +65376,7 @@
       </c>
       <c r="AS262" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT262" t="inlineStr">
@@ -65481,7 +65481,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -65624,7 +65624,7 @@
       </c>
       <c r="AS263" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT263" t="inlineStr">
@@ -65729,7 +65729,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>b.tech (electronic and instrumentation engineering)</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -65867,12 +65867,12 @@
       </c>
       <c r="AR264" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS264" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT264" t="inlineStr">
@@ -65977,7 +65977,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>m.tech- biotechnology</t>
+          <t>mtech</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -66115,12 +66115,12 @@
       </c>
       <c r="AR265" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS265" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT265" t="inlineStr">
@@ -66225,7 +66225,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -66363,12 +66363,12 @@
       </c>
       <c r="AR266" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS266" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT266" t="inlineStr">
@@ -66473,7 +66473,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>mba - business analytics</t>
+          <t>mba</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -66611,12 +66611,12 @@
       </c>
       <c r="AR267" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS267" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT267" t="inlineStr">
@@ -66721,7 +66721,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>bba- finance</t>
+          <t>bba</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -66859,12 +66859,12 @@
       </c>
       <c r="AR268" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS268" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT268" t="inlineStr">
@@ -66969,7 +66969,7 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>b.tech - computer science &amp; engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -67107,12 +67107,12 @@
       </c>
       <c r="AR269" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS269" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT269" t="inlineStr">
@@ -67217,7 +67217,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>b.e - computer science</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -67355,12 +67355,12 @@
       </c>
       <c r="AR270" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS270" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT270" t="inlineStr">
@@ -67465,7 +67465,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>b.sc hons. - mathematics</t>
+          <t>bsc</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -67608,7 +67608,7 @@
       </c>
       <c r="AS271" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT271" t="inlineStr">
@@ -67713,7 +67713,7 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>b.e - electronics and communication engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -67851,12 +67851,12 @@
       </c>
       <c r="AR272" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS272" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT272" t="inlineStr">
@@ -67961,7 +67961,7 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -68099,12 +68099,12 @@
       </c>
       <c r="AR273" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS273" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT273" t="inlineStr">
@@ -68209,7 +68209,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>pgdc - thermal power plant engineering</t>
+          <t>pgdc</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -68347,12 +68347,12 @@
       </c>
       <c r="AR274" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS274" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT274" t="inlineStr">
@@ -68457,7 +68457,7 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>m.tech - computer science &amp; engineering</t>
+          <t>mtech</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -68595,12 +68595,12 @@
       </c>
       <c r="AR275" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS275" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT275" t="inlineStr">
@@ -68705,7 +68705,7 @@
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>m.tech - mechanical engineering</t>
+          <t>mtech</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -68848,7 +68848,7 @@
       </c>
       <c r="AS276" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT276" t="inlineStr">
@@ -68953,7 +68953,7 @@
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>b.tech - electronics &amp; communication engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -69091,12 +69091,12 @@
       </c>
       <c r="AR277" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS277" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT277" t="inlineStr">
@@ -69201,7 +69201,7 @@
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -69339,12 +69339,12 @@
       </c>
       <c r="AR278" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS278" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT278" t="inlineStr">
@@ -69587,12 +69587,12 @@
       </c>
       <c r="AR279" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS279" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT279" t="inlineStr">
@@ -69697,7 +69697,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>bachelors of commerce</t>
+          <t>bca</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -69835,12 +69835,12 @@
       </c>
       <c r="AR280" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS280" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT280" t="inlineStr">
@@ -69945,7 +69945,7 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>b.e (computer engineering)</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -70088,7 +70088,7 @@
       </c>
       <c r="AS281" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT281" t="inlineStr">
@@ -70193,7 +70193,7 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>b.e - telecommunication</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -70331,12 +70331,12 @@
       </c>
       <c r="AR282" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS282" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT282" t="inlineStr">
@@ -70441,7 +70441,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -70584,7 +70584,7 @@
       </c>
       <c r="AS283" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT283" t="inlineStr">
@@ -70689,7 +70689,7 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>masters/pgp in machine learning</t>
+          <t>ms</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -70832,7 +70832,7 @@
       </c>
       <c r="AS284" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT284" t="inlineStr">
@@ -70937,7 +70937,7 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>mba-it</t>
+          <t>mba</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -71075,12 +71075,12 @@
       </c>
       <c r="AR285" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS285" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT285" t="inlineStr">
@@ -71185,7 +71185,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>b.com</t>
+          <t>bcom</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -71323,12 +71323,12 @@
       </c>
       <c r="AR286" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS286" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT286" t="inlineStr">
@@ -71433,7 +71433,7 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>b.tech  - electronics and communication</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -71571,12 +71571,12 @@
       </c>
       <c r="AR287" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS287" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT287" t="inlineStr">
@@ -71681,7 +71681,7 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>b.tech - mechanical engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -71819,12 +71819,12 @@
       </c>
       <c r="AR288" t="inlineStr">
         <is>
-          <t>loan sanctioned- self</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS288" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT288" t="inlineStr">
@@ -71929,7 +71929,7 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -72067,12 +72067,12 @@
       </c>
       <c r="AR289" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS289" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT289" t="inlineStr">
@@ -72177,7 +72177,7 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>b.tech  - computer science engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -72315,12 +72315,12 @@
       </c>
       <c r="AR290" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS290" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT290" t="inlineStr">
@@ -72425,7 +72425,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>b.tech - information technology</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -72563,12 +72563,12 @@
       </c>
       <c r="AR291" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS291" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT291" t="inlineStr">
@@ -72673,7 +72673,7 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>b.tech  - computer science</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -72816,7 +72816,7 @@
       </c>
       <c r="AS292" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT292" t="inlineStr">
@@ -72921,7 +72921,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>masters of biomedical engineering</t>
+          <t>mtech</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -73059,12 +73059,12 @@
       </c>
       <c r="AR293" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS293" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT293" t="inlineStr">
@@ -73169,7 +73169,7 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>b.e - computer science</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -73307,12 +73307,12 @@
       </c>
       <c r="AR294" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS294" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT294" t="inlineStr">
@@ -73417,7 +73417,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>b.e - electronics &amp; communication engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -73555,12 +73555,12 @@
       </c>
       <c r="AR295" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS295" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT295" t="inlineStr">
@@ -73665,7 +73665,7 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>b.tech - computer science</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -73803,12 +73803,12 @@
       </c>
       <c r="AR296" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS296" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT296" t="inlineStr">
@@ -73913,7 +73913,7 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>b.tech - computer science</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -74051,12 +74051,12 @@
       </c>
       <c r="AR297" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS297" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT297" t="inlineStr">
@@ -74161,7 +74161,7 @@
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>b.tech - computer science engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -74299,12 +74299,12 @@
       </c>
       <c r="AR298" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS298" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT298" t="inlineStr">
@@ -74409,7 +74409,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>b.tech - electrical &amp; electronicsengineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -74547,12 +74547,12 @@
       </c>
       <c r="AR299" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS299" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT299" t="inlineStr">
@@ -74657,7 +74657,7 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>b.tech - leather technology</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -74795,12 +74795,12 @@
       </c>
       <c r="AR300" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS300" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT300" t="inlineStr">
@@ -74905,7 +74905,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>b.tech - electronics and communication engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -75043,12 +75043,12 @@
       </c>
       <c r="AR301" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS301" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT301" t="inlineStr">
@@ -75153,7 +75153,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>b.com</t>
+          <t>bcom</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -75291,12 +75291,12 @@
       </c>
       <c r="AR302" t="inlineStr">
         <is>
-          <t>loan file submitted - futurense</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS302" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT302" t="inlineStr">
@@ -75401,7 +75401,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>b.tech - information technology</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -75544,7 +75544,7 @@
       </c>
       <c r="AS303" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT303" t="inlineStr">
@@ -75649,7 +75649,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>b.e - electronics &amp; communication engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -75787,12 +75787,12 @@
       </c>
       <c r="AR304" t="inlineStr">
         <is>
-          <t>candidate deferred to next intake</t>
+          <t>next intake</t>
         </is>
       </c>
       <c r="AS304" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT304" t="inlineStr">
@@ -75897,7 +75897,7 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>b.tech - computer engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -76040,7 +76040,7 @@
       </c>
       <c r="AS305" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT305" t="inlineStr">
@@ -76145,7 +76145,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>bba- computer applications</t>
+          <t>bba</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -76288,7 +76288,7 @@
       </c>
       <c r="AS306" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT306" t="inlineStr">
@@ -76393,7 +76393,7 @@
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>b.tech - computer engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -76536,7 +76536,7 @@
       </c>
       <c r="AS307" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT307" t="inlineStr">
@@ -76641,7 +76641,7 @@
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>b.e - information science &amp; engineering</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -76779,12 +76779,12 @@
       </c>
       <c r="AR308" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS308" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT308" t="inlineStr">
@@ -76889,7 +76889,7 @@
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>m.com</t>
+          <t>mcom</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -77027,12 +77027,12 @@
       </c>
       <c r="AR309" t="inlineStr">
         <is>
-          <t>loan pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS309" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT309" t="inlineStr">
@@ -77137,7 +77137,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>btech manufacturing engineering&amp; technology</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -77275,12 +77275,12 @@
       </c>
       <c r="AR310" t="inlineStr">
         <is>
-          <t>cx dicey</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS310" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT310" t="inlineStr">
@@ -77385,7 +77385,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -77523,12 +77523,12 @@
       </c>
       <c r="AR311" t="inlineStr">
         <is>
-          <t>loan file submitted - self</t>
+          <t>submitted</t>
         </is>
       </c>
       <c r="AS311" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT311" t="inlineStr">
@@ -77633,7 +77633,7 @@
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>b.tech - computer engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -77776,7 +77776,7 @@
       </c>
       <c r="AS312" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT312" t="inlineStr">
@@ -77881,7 +77881,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>b.tech - civil engineering</t>
+          <t>btech</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -78024,7 +78024,7 @@
       </c>
       <c r="AS313" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT313" t="inlineStr">
@@ -78129,7 +78129,7 @@
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>b.e computer science</t>
+          <t>be</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -78267,12 +78267,12 @@
       </c>
       <c r="AR314" t="inlineStr">
         <is>
-          <t>loan sanctioned- futurense</t>
+          <t>sanctioned</t>
         </is>
       </c>
       <c r="AS314" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT314" t="inlineStr">
@@ -78377,7 +78377,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -78515,12 +78515,12 @@
       </c>
       <c r="AR315" t="inlineStr">
         <is>
-          <t>yet to contact</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS315" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT315" t="inlineStr">
@@ -78625,7 +78625,7 @@
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>No Higher Education</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -78763,12 +78763,12 @@
       </c>
       <c r="AR316" t="inlineStr">
         <is>
-          <t>yet to contact</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="AS316" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>nil</t>
         </is>
       </c>
       <c r="AT316" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="BC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
         <v>69.66</v>
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="BC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
         <v>65</v>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="BC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
         <v>71.3</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="BC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
         <v>65</v>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="BC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
         <v>57.5</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="BC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" t="n">
         <v>65</v>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="BC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" t="n">
         <v>86.59999999999999</v>
@@ -6661,7 +6661,7 @@
         </is>
       </c>
       <c r="BC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" t="n">
         <v>65</v>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="BC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" t="n">
         <v>67</v>
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="BC27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" t="n">
         <v>130</v>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="BC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28" t="n">
         <v>65</v>
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="BC29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29" t="n">
         <v>77.40000000000001</v>
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="BC30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD30" t="n">
         <v>82</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="BC32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32" t="n">
         <v>71.7</v>
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="BC33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" t="n">
         <v>87.40000000000001</v>
@@ -10877,7 +10877,7 @@
         </is>
       </c>
       <c r="BC42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD42" t="n">
         <v>171</v>
@@ -11125,7 +11125,7 @@
         </is>
       </c>
       <c r="BC43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD43" t="n">
         <v>65</v>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="BC44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD44" t="n">
         <v>65</v>
@@ -12613,7 +12613,7 @@
         </is>
       </c>
       <c r="BC49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD49" t="n">
         <v>74.7</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="BC50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD50" t="n">
         <v>65</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="BC52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD52" t="n">
         <v>74.59999999999999</v>
@@ -13853,7 +13853,7 @@
         </is>
       </c>
       <c r="BC54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" t="n">
         <v>95.7</v>
@@ -14349,7 +14349,7 @@
         </is>
       </c>
       <c r="BC56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" t="n">
         <v>82.8</v>
@@ -14597,7 +14597,7 @@
         </is>
       </c>
       <c r="BC57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" t="n">
         <v>0</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="BC59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD59" t="n">
         <v>65</v>
@@ -15341,7 +15341,7 @@
         </is>
       </c>
       <c r="BC60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD60" t="n">
         <v>133.1</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="BC62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD62" t="n">
         <v>74</v>
@@ -16085,7 +16085,7 @@
         </is>
       </c>
       <c r="BC63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD63" t="n">
         <v>79.7</v>
@@ -16333,7 +16333,7 @@
         </is>
       </c>
       <c r="BC64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD64" t="n">
         <v>82</v>
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="BC65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65" t="n">
         <v>67</v>
@@ -16829,7 +16829,7 @@
         </is>
       </c>
       <c r="BC66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD66" t="n">
         <v>124.6</v>
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="BC70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD70" t="n">
         <v>54</v>
@@ -19309,7 +19309,7 @@
         </is>
       </c>
       <c r="BC76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD76" t="n">
         <v>152</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="BC77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD77" t="n">
         <v>143</v>
@@ -19805,7 +19805,7 @@
         </is>
       </c>
       <c r="BC78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD78" t="n">
         <v>63.2</v>
@@ -20301,7 +20301,7 @@
         </is>
       </c>
       <c r="BC80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD80" t="n">
         <v>158</v>
@@ -21045,7 +21045,7 @@
         </is>
       </c>
       <c r="BC83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD83" t="n">
         <v>68.5</v>
@@ -21541,7 +21541,7 @@
         </is>
       </c>
       <c r="BC85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD85" t="n">
         <v>60</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="BC89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD89" t="n">
         <v>157.8</v>
@@ -23029,7 +23029,7 @@
         </is>
       </c>
       <c r="BC91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD91" t="n">
         <v>65</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="BC95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD95" t="n">
         <v>71.2</v>
@@ -25013,7 +25013,7 @@
         </is>
       </c>
       <c r="BC99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD99" t="n">
         <v>65</v>
@@ -25509,7 +25509,7 @@
         </is>
       </c>
       <c r="BC101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD101" t="n">
         <v>65.90000000000001</v>
@@ -26997,7 +26997,7 @@
         </is>
       </c>
       <c r="BC107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD107" t="n">
         <v>66</v>
@@ -27245,7 +27245,7 @@
         </is>
       </c>
       <c r="BC108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD108" t="n">
         <v>66.12</v>
@@ -27493,7 +27493,7 @@
         </is>
       </c>
       <c r="BC109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD109" t="n">
         <v>65</v>
@@ -27741,7 +27741,7 @@
         </is>
       </c>
       <c r="BC110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD110" t="n">
         <v>56.4</v>
@@ -31461,7 +31461,7 @@
         </is>
       </c>
       <c r="BC125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD125" t="n">
         <v>65</v>
@@ -31709,7 +31709,7 @@
         </is>
       </c>
       <c r="BC126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD126" t="n">
         <v>65</v>
@@ -32701,7 +32701,7 @@
         </is>
       </c>
       <c r="BC130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD130" t="n">
         <v>65</v>
@@ -33445,7 +33445,7 @@
         </is>
       </c>
       <c r="BC133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD133" t="n">
         <v>63</v>
@@ -33693,7 +33693,7 @@
         </is>
       </c>
       <c r="BC134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD134" t="n">
         <v>58</v>
@@ -34437,7 +34437,7 @@
         </is>
       </c>
       <c r="BC137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD137" t="n">
         <v>65</v>
@@ -35677,7 +35677,7 @@
         </is>
       </c>
       <c r="BC142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD142" t="n">
         <v>157</v>
@@ -36665,7 +36665,7 @@
         </is>
       </c>
       <c r="BC146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD146" t="n">
         <v>65</v>
@@ -37657,7 +37657,7 @@
         </is>
       </c>
       <c r="BC150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD150" t="n">
         <v>65</v>
@@ -39641,7 +39641,7 @@
         </is>
       </c>
       <c r="BC158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD158" t="n">
         <v>139.32</v>
@@ -40137,7 +40137,7 @@
         </is>
       </c>
       <c r="BC160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD160" t="n">
         <v>65</v>
@@ -41377,7 +41377,7 @@
         </is>
       </c>
       <c r="BC165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD165" t="n">
         <v>50</v>
@@ -41873,7 +41873,7 @@
         </is>
       </c>
       <c r="BC167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD167" t="n">
         <v>61.4</v>
@@ -42121,7 +42121,7 @@
         </is>
       </c>
       <c r="BC168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD168" t="n">
         <v>79.3</v>
@@ -42369,7 +42369,7 @@
         </is>
       </c>
       <c r="BC169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD169" t="n">
         <v>60.59999999999999</v>
@@ -43361,7 +43361,7 @@
         </is>
       </c>
       <c r="BC173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD173" t="n">
         <v>66.39999999999999</v>
@@ -43857,7 +43857,7 @@
         </is>
       </c>
       <c r="BC175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD175" t="n">
         <v>57</v>
@@ -45345,7 +45345,7 @@
         </is>
       </c>
       <c r="BC181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD181" t="n">
         <v>43.5</v>
@@ -45593,7 +45593,7 @@
         </is>
       </c>
       <c r="BC182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD182" t="n">
         <v>70</v>
@@ -46833,7 +46833,7 @@
         </is>
       </c>
       <c r="BC187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD187" t="n">
         <v>65</v>
@@ -47329,7 +47329,7 @@
         </is>
       </c>
       <c r="BC189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD189" t="n">
         <v>61.09999999999999</v>
@@ -47825,7 +47825,7 @@
         </is>
       </c>
       <c r="BC191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD191" t="n">
         <v>78</v>
@@ -48317,7 +48317,7 @@
         </is>
       </c>
       <c r="BC193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD193" t="n">
         <v>65</v>
@@ -48813,7 +48813,7 @@
         </is>
       </c>
       <c r="BC195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD195" t="n">
         <v>65</v>
@@ -50549,7 +50549,7 @@
         </is>
       </c>
       <c r="BC202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD202" t="n">
         <v>140</v>
@@ -50797,7 +50797,7 @@
         </is>
       </c>
       <c r="BC203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD203" t="n">
         <v>65</v>
@@ -51789,7 +51789,7 @@
         </is>
       </c>
       <c r="BC207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD207" t="n">
         <v>58.5</v>
@@ -52037,7 +52037,7 @@
         </is>
       </c>
       <c r="BC208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD208" t="n">
         <v>0</v>
@@ -53029,7 +53029,7 @@
         </is>
       </c>
       <c r="BC212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD212" t="n">
         <v>78.8</v>
@@ -53277,7 +53277,7 @@
         </is>
       </c>
       <c r="BC213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD213" t="n">
         <v>164.75</v>
@@ -53525,7 +53525,7 @@
         </is>
       </c>
       <c r="BC214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD214" t="n">
         <v>84.90000000000001</v>
@@ -53773,7 +53773,7 @@
         </is>
       </c>
       <c r="BC215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD215" t="n">
         <v>79.90000000000001</v>
@@ -54269,7 +54269,7 @@
         </is>
       </c>
       <c r="BC217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD217" t="n">
         <v>65</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="BC219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD219" t="n">
         <v>73.89999999999999</v>
@@ -55753,7 +55753,7 @@
         </is>
       </c>
       <c r="BC223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD223" t="n">
         <v>65.8</v>
@@ -56249,7 +56249,7 @@
         </is>
       </c>
       <c r="BC225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD225" t="n">
         <v>65</v>
@@ -56745,7 +56745,7 @@
         </is>
       </c>
       <c r="BC227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD227" t="n">
         <v>70</v>
@@ -56993,7 +56993,7 @@
         </is>
       </c>
       <c r="BC228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD228" t="n">
         <v>74.80000000000001</v>
@@ -58481,7 +58481,7 @@
         </is>
       </c>
       <c r="BC234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD234" t="n">
         <v>138.7</v>
@@ -59473,7 +59473,7 @@
         </is>
       </c>
       <c r="BC238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD238" t="n">
         <v>55</v>
@@ -59965,7 +59965,7 @@
         </is>
       </c>
       <c r="BC240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD240" t="n">
         <v>141</v>
@@ -61205,7 +61205,7 @@
         </is>
       </c>
       <c r="BC245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD245" t="n">
         <v>151.74</v>
@@ -63933,7 +63933,7 @@
         </is>
       </c>
       <c r="BC256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD256" t="n">
         <v>72.5</v>
@@ -64181,7 +64181,7 @@
         </is>
       </c>
       <c r="BC257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD257" t="n">
         <v>63.3</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="BC262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD262" t="n">
         <v>65</v>
@@ -65669,7 +65669,7 @@
         </is>
       </c>
       <c r="BC263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD263" t="n">
         <v>65</v>
@@ -65917,7 +65917,7 @@
         </is>
       </c>
       <c r="BC264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD264" t="n">
         <v>63.2</v>
@@ -66413,7 +66413,7 @@
         </is>
       </c>
       <c r="BC266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD266" t="n">
         <v>65</v>
@@ -67405,7 +67405,7 @@
         </is>
       </c>
       <c r="BC270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD270" t="n">
         <v>86.09999999999999</v>
@@ -68149,7 +68149,7 @@
         </is>
       </c>
       <c r="BC273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD273" t="n">
         <v>65</v>
@@ -68645,7 +68645,7 @@
         </is>
       </c>
       <c r="BC275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD275" t="n">
         <v>145.9</v>
@@ -68893,7 +68893,7 @@
         </is>
       </c>
       <c r="BC276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD276" t="n">
         <v>67.69999999999999</v>
@@ -69141,7 +69141,7 @@
         </is>
       </c>
       <c r="BC277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD277" t="n">
         <v>63.09999999999999</v>
@@ -70133,7 +70133,7 @@
         </is>
       </c>
       <c r="BC281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD281" t="n">
         <v>80.39999999999999</v>
@@ -70629,7 +70629,7 @@
         </is>
       </c>
       <c r="BC283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD283" t="n">
         <v>65</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="BC289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD289" t="n">
         <v>65</v>
@@ -72861,7 +72861,7 @@
         </is>
       </c>
       <c r="BC292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD292" t="n">
         <v>73.8</v>
@@ -78069,7 +78069,7 @@
         </is>
       </c>
       <c r="BC313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD313" t="n">
         <v>59</v>
@@ -78565,7 +78565,7 @@
         </is>
       </c>
       <c r="BC315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD315" t="n">
         <v>65</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="BC316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD316" t="n">
         <v>65</v>
